--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Itga6</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Itga6</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H2">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I2">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J2">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N2">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O2">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P2">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q2">
-        <v>483.1283031430801</v>
+        <v>556.9771251101749</v>
       </c>
       <c r="R2">
-        <v>1932.51321257232</v>
+        <v>2227.9085004407</v>
       </c>
       <c r="S2">
-        <v>0.01020454248436728</v>
+        <v>0.01422337342149073</v>
       </c>
       <c r="T2">
-        <v>0.005523372443036947</v>
+        <v>0.008344730226815299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H3">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I3">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J3">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P3">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q3">
-        <v>1.074582044678333</v>
+        <v>1.156733203128667</v>
       </c>
       <c r="R3">
-        <v>6.447492268070001</v>
+        <v>6.940399218772</v>
       </c>
       <c r="S3">
-        <v>2.269711390642913E-05</v>
+        <v>2.953918133331174E-05</v>
       </c>
       <c r="T3">
-        <v>1.842776592080812E-05</v>
+        <v>2.599557348768845E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H4">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I4">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J4">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N4">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O4">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P4">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q4">
-        <v>172.57187646734</v>
+        <v>93.29052398337633</v>
       </c>
       <c r="R4">
-        <v>1035.43125880404</v>
+        <v>559.743143900258</v>
       </c>
       <c r="S4">
-        <v>0.00364502976447733</v>
+        <v>0.002382334748558345</v>
       </c>
       <c r="T4">
-        <v>0.002959396315808251</v>
+        <v>0.002096542802917248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H5">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I5">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J5">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N5">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O5">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P5">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q5">
-        <v>13.67515320089625</v>
+        <v>19.617651068846</v>
       </c>
       <c r="R5">
-        <v>54.700612803585</v>
+        <v>78.47060427538401</v>
       </c>
       <c r="S5">
-        <v>0.0002888439383718928</v>
+        <v>0.0005009706219972841</v>
       </c>
       <c r="T5">
-        <v>0.0001563414187344133</v>
+        <v>0.0002939151330872567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H6">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I6">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J6">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N6">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O6">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P6">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q6">
-        <v>330.4635996831576</v>
+        <v>51.84721057606632</v>
       </c>
       <c r="R6">
-        <v>1982.781598098945</v>
+        <v>311.083263456398</v>
       </c>
       <c r="S6">
-        <v>0.00697998817408349</v>
+        <v>0.001324008121051977</v>
       </c>
       <c r="T6">
-        <v>0.005667045983568213</v>
+        <v>0.00116517617806452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H7">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I7">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J7">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N7">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O7">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P7">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q7">
-        <v>132.1743765907425</v>
+        <v>249.497194943187</v>
       </c>
       <c r="R7">
-        <v>793.046259544455</v>
+        <v>1496.983169659122</v>
       </c>
       <c r="S7">
-        <v>0.002791761593121872</v>
+        <v>0.00637134203777122</v>
       </c>
       <c r="T7">
-        <v>0.002266628671682339</v>
+        <v>0.005607016940963796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
         <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J8">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N8">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O8">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P8">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q8">
-        <v>17430.95176437401</v>
+        <v>18668.19623885627</v>
       </c>
       <c r="R8">
-        <v>104585.7105862441</v>
+        <v>112009.1774331376</v>
       </c>
       <c r="S8">
-        <v>0.3681731884994393</v>
+        <v>0.4767246521271378</v>
       </c>
       <c r="T8">
-        <v>0.2989194733724906</v>
+        <v>0.4195353482524674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
         <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J9">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P9">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q9">
-        <v>38.77021417663288</v>
+        <v>38.77021417663289</v>
       </c>
       <c r="R9">
         <v>348.931927589696</v>
       </c>
       <c r="S9">
-        <v>0.000818896957846622</v>
+        <v>0.0009900644191740246</v>
       </c>
       <c r="T9">
-        <v>0.000997292531200516</v>
+        <v>0.001306940030383965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
         <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J10">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N10">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O10">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P10">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q10">
-        <v>6226.279924028501</v>
+        <v>3126.81747675526</v>
       </c>
       <c r="R10">
-        <v>56036.5193162565</v>
+        <v>28141.35729079734</v>
       </c>
       <c r="S10">
-        <v>0.1315102791348894</v>
+        <v>0.07984868783244223</v>
       </c>
       <c r="T10">
-        <v>0.1601596121473017</v>
+        <v>0.1054047034524415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
         <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J11">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N11">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O11">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P11">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q11">
-        <v>493.3905429768479</v>
+        <v>657.5245973094187</v>
       </c>
       <c r="R11">
-        <v>2960.343257861087</v>
+        <v>3945.147583856512</v>
       </c>
       <c r="S11">
-        <v>0.01042129952734565</v>
+        <v>0.01679102688372926</v>
       </c>
       <c r="T11">
-        <v>0.008461043508538622</v>
+        <v>0.01477672547402314</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
         <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J12">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N12">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O12">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P12">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q12">
-        <v>11922.90956353388</v>
+        <v>1737.762392449874</v>
       </c>
       <c r="R12">
-        <v>107306.1860718049</v>
+        <v>15639.86153204886</v>
       </c>
       <c r="S12">
-        <v>0.2518333875014522</v>
+        <v>0.04437676577965113</v>
       </c>
       <c r="T12">
-        <v>0.3066949437967798</v>
+        <v>0.05857979591346677</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
         <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J13">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N13">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O13">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P13">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q13">
-        <v>4768.764669448735</v>
+        <v>8362.394766790943</v>
       </c>
       <c r="R13">
-        <v>42918.88202503861</v>
+        <v>75261.5529011185</v>
       </c>
       <c r="S13">
-        <v>0.1007249241055695</v>
+        <v>0.2135482017191637</v>
       </c>
       <c r="T13">
-        <v>0.1226677099648449</v>
+        <v>0.2818954886552975</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H14">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I14">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J14">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N14">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O14">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P14">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q14">
-        <v>1838.2608894576</v>
+        <v>3200.278550779888</v>
       </c>
       <c r="R14">
-        <v>7353.0435578304</v>
+        <v>12801.11420311955</v>
       </c>
       <c r="S14">
-        <v>0.03882739061608121</v>
+        <v>0.0817246433083325</v>
       </c>
       <c r="T14">
-        <v>0.021015948504544</v>
+        <v>0.04794714172801803</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H15">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I15">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J15">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P15">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q15">
-        <v>4.088690586733333</v>
+        <v>6.646356361969667</v>
       </c>
       <c r="R15">
-        <v>24.5321435204</v>
+        <v>39.878138171818</v>
       </c>
       <c r="S15">
-        <v>8.636053099417859E-05</v>
+        <v>0.0001697261955055975</v>
       </c>
       <c r="T15">
-        <v>7.01160357443786E-05</v>
+        <v>0.0001493653374569294</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H16">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I16">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J16">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N16">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O16">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P16">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q16">
-        <v>656.6208791048</v>
+        <v>536.0285897485628</v>
       </c>
       <c r="R16">
-        <v>3939.7252746288</v>
+        <v>3216.171538491377</v>
       </c>
       <c r="S16">
-        <v>0.01386901908531561</v>
+        <v>0.01368841636912961</v>
       </c>
       <c r="T16">
-        <v>0.01126024384902183</v>
+        <v>0.01204631332326406</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H17">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I17">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J17">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N17">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O17">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P17">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q17">
-        <v>52.03276049654999</v>
+        <v>112.719077861399</v>
       </c>
       <c r="R17">
-        <v>208.1310419862</v>
+        <v>450.8763114455961</v>
       </c>
       <c r="S17">
-        <v>0.001099025893560004</v>
+        <v>0.002878476447002435</v>
       </c>
       <c r="T17">
-        <v>0.000594865408613149</v>
+        <v>0.001688777247328968</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H18">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I18">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J18">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N18">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O18">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P18">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q18">
-        <v>1257.3850605209</v>
+        <v>297.9036453095478</v>
       </c>
       <c r="R18">
-        <v>7544.310363125399</v>
+        <v>1787.421871857287</v>
       </c>
       <c r="S18">
-        <v>0.02655824381602063</v>
+        <v>0.007607484400769368</v>
       </c>
       <c r="T18">
-        <v>0.02156261374582735</v>
+        <v>0.006694867998038456</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H19">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I19">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J19">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N19">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O19">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P19">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q19">
-        <v>502.9119293870999</v>
+        <v>1433.560707360265</v>
       </c>
       <c r="R19">
-        <v>3017.4715763226</v>
+        <v>8601.364244161594</v>
       </c>
       <c r="S19">
-        <v>0.01062240840774324</v>
+        <v>0.03660845004923339</v>
       </c>
       <c r="T19">
-        <v>0.008624323623703963</v>
+        <v>0.032216791751504</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H20">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I20">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J20">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N20">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O20">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P20">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q20">
-        <v>409.79300319224</v>
+        <v>4.751532125725</v>
       </c>
       <c r="R20">
-        <v>2458.75801915344</v>
+        <v>28.50919275435</v>
       </c>
       <c r="S20">
-        <v>0.008655568476668672</v>
+        <v>0.0001213385841205379</v>
       </c>
       <c r="T20">
-        <v>0.007027448091292153</v>
+        <v>0.0001067824475162553</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H21">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I21">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J21">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P21">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q21">
-        <v>0.9114684451322221</v>
+        <v>0.009868008447333335</v>
       </c>
       <c r="R21">
-        <v>8.203216006189999</v>
+        <v>0.088812076026</v>
       </c>
       <c r="S21">
-        <v>1.925186003594037E-05</v>
+        <v>2.519966489558853E-07</v>
       </c>
       <c r="T21">
-        <v>2.344585120458721E-05</v>
+        <v>3.326495747800154E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H22">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I22">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J22">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N22">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O22">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P22">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q22">
-        <v>146.3767431218533</v>
+        <v>0.7958548057876667</v>
       </c>
       <c r="R22">
-        <v>1317.39068809668</v>
+        <v>7.162693252089</v>
       </c>
       <c r="S22">
-        <v>0.003091741229384986</v>
+        <v>2.03235278105305E-05</v>
       </c>
       <c r="T22">
-        <v>0.003765272794001338</v>
+        <v>2.682818566125578E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H23">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I23">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J23">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N23">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O23">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P23">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q23">
-        <v>11.5993661784075</v>
+        <v>0.167356781962</v>
       </c>
       <c r="R23">
-        <v>69.59619707044499</v>
+        <v>1.004140691772</v>
       </c>
       <c r="S23">
-        <v>0.0002449995667594695</v>
+        <v>4.273744642553625E-06</v>
       </c>
       <c r="T23">
-        <v>0.0001989149230847388</v>
+        <v>3.761053553567185E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H24">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I24">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J24">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N24">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O24">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P24">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q24">
-        <v>280.3016715826183</v>
+        <v>0.4423048552176667</v>
       </c>
       <c r="R24">
-        <v>2522.715044243565</v>
+        <v>3.980743696958999</v>
       </c>
       <c r="S24">
-        <v>0.005920477640195074</v>
+        <v>1.129501884059392E-05</v>
       </c>
       <c r="T24">
-        <v>0.007210245532273786</v>
+        <v>1.491005229642393E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H25">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I25">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J25">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N25">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O25">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P25">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q25">
-        <v>112.111284674915</v>
+        <v>2.128442773689</v>
       </c>
       <c r="R25">
-        <v>1009.001562074235</v>
+        <v>19.155984963201</v>
       </c>
       <c r="S25">
-        <v>0.002367992849931111</v>
+        <v>5.435346446312987E-05</v>
       </c>
       <c r="T25">
-        <v>0.002883856827826733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.346763</v>
-      </c>
-      <c r="I26">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J26">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>213.535248</v>
-      </c>
-      <c r="N26">
-        <v>427.070496</v>
-      </c>
-      <c r="O26">
-        <v>0.4263820193694889</v>
-      </c>
-      <c r="P26">
-        <v>0.3329095091851672</v>
-      </c>
-      <c r="Q26">
-        <v>24.682041067408</v>
-      </c>
-      <c r="R26">
-        <v>148.092246404448</v>
-      </c>
-      <c r="S26">
-        <v>0.000521329292932505</v>
-      </c>
-      <c r="T26">
-        <v>0.0004232667738033148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.346763</v>
-      </c>
-      <c r="I27">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J27">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.4749486666666667</v>
-      </c>
-      <c r="N27">
-        <v>1.424846</v>
-      </c>
-      <c r="O27">
-        <v>0.0009483660121076572</v>
-      </c>
-      <c r="P27">
-        <v>0.001110694339616588</v>
-      </c>
-      <c r="Q27">
-        <v>0.05489820816644445</v>
-      </c>
-      <c r="R27">
-        <v>0.494083873498</v>
-      </c>
-      <c r="S27">
-        <v>1.159549324487025E-06</v>
-      </c>
-      <c r="T27">
-        <v>1.412155546297812E-06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.346763</v>
-      </c>
-      <c r="I28">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J28">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>76.27410400000001</v>
-      </c>
-      <c r="N28">
-        <v>228.822312</v>
-      </c>
-      <c r="O28">
-        <v>0.1523022863612588</v>
-      </c>
-      <c r="P28">
-        <v>0.1783713094021254</v>
-      </c>
-      <c r="Q28">
-        <v>8.816345708450667</v>
-      </c>
-      <c r="R28">
-        <v>79.34711137605601</v>
-      </c>
-      <c r="S28">
-        <v>0.0001862171471914574</v>
-      </c>
-      <c r="T28">
-        <v>0.0002267842959923308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.346763</v>
-      </c>
-      <c r="I29">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J29">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>6.0442065</v>
-      </c>
-      <c r="N29">
-        <v>12.088413</v>
-      </c>
-      <c r="O29">
-        <v>0.01206892537458823</v>
-      </c>
-      <c r="P29">
-        <v>0.009423146005987718</v>
-      </c>
-      <c r="Q29">
-        <v>0.6986357261864999</v>
-      </c>
-      <c r="R29">
-        <v>4.191814357118999</v>
-      </c>
-      <c r="S29">
-        <v>1.475644855121554E-05</v>
-      </c>
-      <c r="T29">
-        <v>1.19807470167924E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.346763</v>
-      </c>
-      <c r="I30">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J30">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>146.059807</v>
-      </c>
-      <c r="N30">
-        <v>438.179421</v>
-      </c>
-      <c r="O30">
-        <v>0.291648690512106</v>
-      </c>
-      <c r="P30">
-        <v>0.3415691258151223</v>
-      </c>
-      <c r="Q30">
-        <v>16.88271228491367</v>
-      </c>
-      <c r="R30">
-        <v>151.944410564223</v>
-      </c>
-      <c r="S30">
-        <v>0.0003565933803545546</v>
-      </c>
-      <c r="T30">
-        <v>0.0004342767566731521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.346763</v>
-      </c>
-      <c r="I31">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J31">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>58.41903299999999</v>
-      </c>
-      <c r="N31">
-        <v>175.257099</v>
-      </c>
-      <c r="O31">
-        <v>0.1166497123704505</v>
-      </c>
-      <c r="P31">
-        <v>0.1366162152519809</v>
-      </c>
-      <c r="Q31">
-        <v>6.752519713392998</v>
-      </c>
-      <c r="R31">
-        <v>60.77267742053699</v>
-      </c>
-      <c r="S31">
-        <v>0.0001426254140847542</v>
-      </c>
-      <c r="T31">
-        <v>0.0001736961639229185</v>
+        <v>7.174959237115111E-05</v>
       </c>
     </row>
   </sheetData>
